--- a/Análise Fibonacci.xlsx
+++ b/Análise Fibonacci.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t xml:space="preserve">Análise Tempo de Processamento (ms)</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fibomemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segmentation Fault</t>
   </si>
   <si>
     <t xml:space="preserve">Fibobu</t>
@@ -152,15 +155,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="13.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="13.4"/>
   </cols>
@@ -304,15 +307,446 @@
         <v>8</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>396</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>399</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>558</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>553</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>393</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>363</v>
+      </c>
+    </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3323</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2877</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>2584</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1525</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>6273</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>6321</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>3590</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>7363</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="C20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>551</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>651</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>514</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>519</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>5755</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>5066</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>5440</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>4902</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>11144</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>4224</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>4304</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>4245</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>12385</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>53665</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>22740</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>23160</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>22516</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>50559</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>67089</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>43029</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>72841</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>73818</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>42375</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>437977</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>444280</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>417115</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>410927</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>440629</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>4123181</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>4033414</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>4035455</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>4015374</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>4006479</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>21540</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>21905</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>22031</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>22351</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>22359</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>224275</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>215468</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>330933</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>241661</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>239420</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>2154225</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
